--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="12060"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>R-Type</t>
   </si>
@@ -245,12 +245,6 @@
     <t>0/02</t>
   </si>
   <si>
-    <t>lbu</t>
-  </si>
-  <si>
-    <t>R[rt] = {24'b0,M[R[rs]+SignExtImm](7:0)}</t>
-  </si>
-  <si>
     <t>sllv</t>
   </si>
   <si>
@@ -260,12 +254,6 @@
     <t>0/04</t>
   </si>
   <si>
-    <t>lhu</t>
-  </si>
-  <si>
-    <t>R[rt] = {16'b0,M[R[rs]+SignExtImm](15:0)}</t>
-  </si>
-  <si>
     <t>srlv</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
     <t>0/06</t>
   </si>
   <si>
-    <t>ll</t>
-  </si>
-  <si>
     <t>sra</t>
   </si>
   <si>
@@ -287,12 +272,6 @@
     <t>0/03</t>
   </si>
   <si>
-    <t>sb</t>
-  </si>
-  <si>
-    <t>M[R[rs]+SignExtImm](7:0) = R[rt](7:0)</t>
-  </si>
-  <si>
     <t>srav</t>
   </si>
   <si>
@@ -300,18 +279,6 @@
   </si>
   <si>
     <t>0/07</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>M[R[rs]+SignExtImm] = R[rt]; R[rt] = (atomic)? 1:0</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>M[R[rs]+SignExtImm](15:0) = R[rt](15:0)</t>
   </si>
 </sst>
 </file>
@@ -324,14 +291,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +471,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -717,19 +671,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -841,48 +782,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,110 +836,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1017,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1305,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1392,466 +1327,430 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="42" spans="1:9">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="28" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:9">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="28" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>23</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>8</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>9</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="7">
-        <v>24</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7">
-        <v>30</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="7">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7">
-        <v>38</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="7">
-        <v>29</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
